--- a/classification/droptc/sentence/modern-bert/freeze/70681460/prediction.xlsx
+++ b/classification/droptc/sentence/modern-bert/freeze/70681460/prediction.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.639214813709259</v>
+        <v>0.4177729189395905</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5570583343505859</v>
+        <v>0.9997376799583435</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7482099533081055</v>
+        <v>0.8831189870834351</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3696007132530212</v>
+        <v>0.7526897788047791</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7853410840034485</v>
+        <v>0.9765743017196655</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7230968475341797</v>
+        <v>0.8295190334320068</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8188232183456421</v>
+        <v>0.7449665069580078</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5947936773300171</v>
+        <v>0.8904159069061279</v>
       </c>
     </row>
     <row r="10">
@@ -702,7 +702,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4559721946716309</v>
+        <v>0.7449665069580078</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4790975451469421</v>
+        <v>0.7886526584625244</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6384231448173523</v>
+        <v>0.8096714019775391</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9115338325500488</v>
+        <v>0.8218254446983337</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +814,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6883825063705444</v>
+        <v>0.8971216082572937</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4954945743083954</v>
+        <v>0.9530793428421021</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2509872019290924</v>
+        <v>0.8512791991233826</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6954131722450256</v>
+        <v>0.8169417381286621</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5530328750610352</v>
+        <v>0.6901926398277283</v>
       </c>
     </row>
     <row r="19">
@@ -954,19 +954,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3402656316757202</v>
+        <v>0.9875373244285583</v>
       </c>
     </row>
     <row r="20">
@@ -982,19 +982,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3814125061035156</v>
+        <v>0.876356303691864</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.608604371547699</v>
+        <v>0.9981120824813843</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7184364795684814</v>
+        <v>0.805910050868988</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7304089665412903</v>
+        <v>0.9913767576217651</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7573886513710022</v>
+        <v>0.9433056712150574</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8414977192878723</v>
+        <v>0.4511053860187531</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8159806728363037</v>
+        <v>0.566345751285553</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8667789101600647</v>
+        <v>0.9731848239898682</v>
       </c>
     </row>
     <row r="28">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3531582653522491</v>
+        <v>0.9997376799583435</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8721619248390198</v>
+        <v>0.7450639009475708</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9513044953346252</v>
+        <v>0.9450451135635376</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5968879461288452</v>
+        <v>0.8734320998191833</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5232335925102234</v>
+        <v>0.9037096500396729</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6384937763214111</v>
+        <v>0.6394112110137939</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6296296119689941</v>
+        <v>0.9241312146186829</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3126426637172699</v>
+        <v>0.9726842641830444</v>
       </c>
     </row>
     <row r="36">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5864365100860596</v>
+        <v>0.9630911946296692</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.880048930644989</v>
+        <v>0.9724383354187012</v>
       </c>
     </row>
     <row r="38">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E38" t="b">
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4687707126140594</v>
+        <v>0.9535886645317078</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5830485820770264</v>
+        <v>0.97674959897995</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2830460965633392</v>
+        <v>0.2644494473934174</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5473974943161011</v>
+        <v>0.9975883960723877</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8250746130943298</v>
+        <v>0.531213104724884</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3757091164588928</v>
+        <v>0.6549479961395264</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8572239279747009</v>
+        <v>0.9069218635559082</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.7084183096885681</v>
+        <v>0.8719218969345093</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6822481751441956</v>
+        <v>0.8963699340820312</v>
       </c>
     </row>
     <row r="47">
@@ -1743,14 +1743,14 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8399920463562012</v>
+        <v>0.6342632174491882</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5560165047645569</v>
+        <v>0.8221787810325623</v>
       </c>
     </row>
     <row r="49">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3808751106262207</v>
+        <v>0.9994199275970459</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6015685200691223</v>
+        <v>0.8822969794273376</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.7268052101135254</v>
+        <v>0.677672803401947</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2549888491630554</v>
+        <v>0.916170597076416</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5104190111160278</v>
+        <v>0.8822969794273376</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9115338325500488</v>
+        <v>0.6488601565361023</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5240914225578308</v>
+        <v>0.9969242215156555</v>
       </c>
     </row>
     <row r="56">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5559322237968445</v>
+        <v>0.9984645843505859</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.4611583650112152</v>
+        <v>0.9989064931869507</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.374029815196991</v>
+        <v>0.8428349494934082</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6804168820381165</v>
+        <v>0.9907538890838623</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9115338325500488</v>
+        <v>0.8863400220870972</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4160305857658386</v>
+        <v>0.9729586243629456</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6825627684593201</v>
+        <v>0.8609243035316467</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.7691954374313354</v>
+        <v>0.8848655819892883</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4706262648105621</v>
+        <v>0.7082951664924622</v>
       </c>
     </row>
     <row r="65">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2509872019290924</v>
+        <v>0.911184549331665</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.7872709631919861</v>
+        <v>0.911184549331665</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7726697325706482</v>
+        <v>0.776377260684967</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8335133194923401</v>
+        <v>0.911184549331665</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7641144394874573</v>
+        <v>0.7037338614463806</v>
       </c>
     </row>
     <row r="70">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2391,10 +2391,10 @@
         </is>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5307673811912537</v>
+        <v>0.9251768589019775</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.3399128913879395</v>
+        <v>0.6294326186180115</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.773170530796051</v>
+        <v>0.9905691146850586</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5066479444503784</v>
+        <v>0.8646048307418823</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8073093891143799</v>
+        <v>0.6528823375701904</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.7417658567428589</v>
+        <v>0.5085465908050537</v>
       </c>
     </row>
     <row r="76">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2559,10 +2559,10 @@
         </is>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2688439190387726</v>
+        <v>0.8646048307418823</v>
       </c>
     </row>
     <row r="77">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.3510933816432953</v>
+        <v>0.5774273276329041</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.5034858584403992</v>
+        <v>0.8646048307418823</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8275322914123535</v>
+        <v>0.9950069189071655</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.7525116801261902</v>
+        <v>0.4253436028957367</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7228823900222778</v>
+        <v>0.3863114416599274</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5998611450195312</v>
+        <v>0.5180613994598389</v>
       </c>
     </row>
     <row r="83">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.6236807107925415</v>
+        <v>0.8865645527839661</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.822269082069397</v>
+        <v>0.8865645527839661</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8331034779548645</v>
+        <v>0.9873840808868408</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6638150811195374</v>
+        <v>0.8595118522644043</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.4421392977237701</v>
+        <v>0.9317744374275208</v>
       </c>
     </row>
     <row r="88">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.277661919593811</v>
+        <v>0.7834253311157227</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.6047796607017517</v>
+        <v>0.7470555305480957</v>
       </c>
     </row>
     <row r="90">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.4790975451469421</v>
+        <v>0.9851224422454834</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9115338325500488</v>
+        <v>0.9845659136772156</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.901507556438446</v>
+        <v>0.9828193783760071</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5556713342666626</v>
+        <v>0.98826003074646</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7462068796157837</v>
+        <v>0.9883290529251099</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2907290756702423</v>
+        <v>0.9841846227645874</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8617560863494873</v>
+        <v>0.985084593296051</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.345132440328598</v>
+        <v>0.3543797731399536</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5830485820770264</v>
+        <v>0.9870852828025818</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5978180170059204</v>
+        <v>0.8951117992401123</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.817625105381012</v>
+        <v>0.7940106391906738</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.6154887080192566</v>
+        <v>0.9382977485656738</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.595018744468689</v>
+        <v>0.5637582540512085</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.6170042157173157</v>
+        <v>0.6409441828727722</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.7283060550689697</v>
+        <v>0.8602274656295776</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.6657004356384277</v>
+        <v>0.9393762946128845</v>
       </c>
     </row>
     <row r="106">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3399,10 +3399,10 @@
         </is>
       </c>
       <c r="E106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.4776391386985779</v>
+        <v>0.9671177268028259</v>
       </c>
     </row>
     <row r="107">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3427,10 +3427,10 @@
         </is>
       </c>
       <c r="E107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.3611700534820557</v>
+        <v>0.470307469367981</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.8650251030921936</v>
+        <v>0.6208708882331848</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.440154641866684</v>
+        <v>0.954469621181488</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.7531738877296448</v>
+        <v>0.9997376799583435</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.2699154317378998</v>
+        <v>0.7103930711746216</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8103927373886108</v>
+        <v>0.6344422698020935</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.7296415567398071</v>
+        <v>0.8744344711303711</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.6696125268936157</v>
+        <v>0.976754367351532</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9041017889976501</v>
+        <v>0.7240082025527954</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7416484951972961</v>
+        <v>0.3826448321342468</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.880048930644989</v>
+        <v>0.8580248951911926</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.4017801880836487</v>
+        <v>0.3994852304458618</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9115338325500488</v>
+        <v>0.6967684626579285</v>
       </c>
     </row>
     <row r="120">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3791,10 +3791,10 @@
         </is>
       </c>
       <c r="E120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5910660028457642</v>
+        <v>0.9997376799583435</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5482267141342163</v>
+        <v>0.7607791423797607</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.4687707126140594</v>
+        <v>0.9629841446876526</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.6407999992370605</v>
+        <v>0.7607791423797607</v>
       </c>
     </row>
     <row r="124">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="E124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.3343583941459656</v>
+        <v>0.9629841446876526</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7752118706703186</v>
+        <v>0.7607791423797607</v>
       </c>
     </row>
     <row r="126">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3959,10 +3959,10 @@
         </is>
       </c>
       <c r="E126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7627527117729187</v>
+        <v>0.9950124621391296</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.5777746438980103</v>
+        <v>0.3155598044395447</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.7522622346878052</v>
+        <v>0.9997376799583435</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.5910122394561768</v>
+        <v>0.6885612010955811</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7720673680305481</v>
+        <v>0.4782011210918427</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.5975775122642517</v>
+        <v>0.9915341734886169</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.2800717651844025</v>
+        <v>0.6337490677833557</v>
       </c>
     </row>
     <row r="133">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.3696007132530212</v>
+        <v>0.9617549180984497</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9115338325500488</v>
+        <v>0.504263699054718</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8426513075828552</v>
+        <v>0.9920206665992737</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9115338325500488</v>
+        <v>0.8957492709159851</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.4478525519371033</v>
+        <v>0.9867987036705017</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5989188551902771</v>
+        <v>0.8439161777496338</v>
       </c>
     </row>
     <row r="139">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="E139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.5109794735908508</v>
+        <v>0.9874427914619446</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.4687707126140594</v>
+        <v>0.9950946569442749</v>
       </c>
     </row>
     <row r="141">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.5491557121276855</v>
+        <v>0.7889788150787354</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9115338325500488</v>
+        <v>0.9997376799583435</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.5917991995811462</v>
+        <v>0.3967552781105042</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.7688287496566772</v>
+        <v>0.9752030372619629</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.6884672045707703</v>
+        <v>0.3967552781105042</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.3139351010322571</v>
+        <v>0.9599208235740662</v>
       </c>
     </row>
     <row r="147">
@@ -4543,14 +4543,14 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.5126103758811951</v>
+        <v>0.7037338614463806</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.6601400375366211</v>
+        <v>0.8986642956733704</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.6332610845565796</v>
+        <v>0.8417311906814575</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4631,10 +4631,10 @@
         </is>
       </c>
       <c r="E150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.3485672473907471</v>
+        <v>0.429654449224472</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.634651243686676</v>
+        <v>0.9997376799583435</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.5207020044326782</v>
+        <v>0.4708730578422546</v>
       </c>
     </row>
     <row r="153">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.6803411245346069</v>
+        <v>0.9894222617149353</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6639368534088135</v>
+        <v>0.7819322347640991</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.6799876093864441</v>
+        <v>0.9968332648277283</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9349987506866455</v>
+        <v>0.5734066367149353</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.2830460965633392</v>
+        <v>0.996265709400177</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9115338325500488</v>
+        <v>0.7456166744232178</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.7588921189308167</v>
+        <v>0.9983978867530823</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.6407999992370605</v>
+        <v>0.7277963161468506</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.4434959888458252</v>
+        <v>0.9913274645805359</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.3126426637172699</v>
+        <v>0.977616548538208</v>
       </c>
     </row>
     <row r="163">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4995,10 +4995,10 @@
         </is>
       </c>
       <c r="E163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.6193124055862427</v>
+        <v>0.8459945917129517</v>
       </c>
     </row>
     <row r="164">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="E164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.608604371547699</v>
+        <v>0.629106342792511</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.2509872019290924</v>
+        <v>0.9920624494552612</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9273147583007812</v>
+        <v>0.9286606311798096</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.4057299494743347</v>
+        <v>0.6906723380088806</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.4018647968769073</v>
+        <v>0.5629702210426331</v>
       </c>
     </row>
     <row r="169">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.4146586656570435</v>
+        <v>0.9997376799583435</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.622346818447113</v>
+        <v>0.6906723380088806</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.8440593481063843</v>
+        <v>0.7476401925086975</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9150458574295044</v>
+        <v>0.9997376799583435</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.3412723541259766</v>
+        <v>0.909756600856781</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.8646235466003418</v>
+        <v>0.9301783442497253</v>
       </c>
     </row>
     <row r="175">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="E175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.4276446104049683</v>
+        <v>0.909756600856781</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.6307317614555359</v>
+        <v>0.8417656421661377</v>
       </c>
     </row>
     <row r="177">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5387,10 +5387,10 @@
         </is>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.5377489328384399</v>
+        <v>0.9301783442497253</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.6455176472663879</v>
+        <v>0.9010011553764343</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.6376610398292542</v>
+        <v>0.9855759143829346</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.7511914968490601</v>
+        <v>0.9610642790794373</v>
       </c>
     </row>
     <row r="181">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5499,10 +5499,10 @@
         </is>
       </c>
       <c r="E181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.7192655205726624</v>
+        <v>0.6434106230735779</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.805890679359436</v>
+        <v>0.9694432616233826</v>
       </c>
     </row>
     <row r="183">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5555,10 +5555,10 @@
         </is>
       </c>
       <c r="E183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7202571034431458</v>
+        <v>0.384588748216629</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.6979567408561707</v>
+        <v>0.9993637204170227</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.7067149877548218</v>
+        <v>0.972019374370575</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.6776160597801208</v>
+        <v>0.9725360870361328</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.5556713342666626</v>
+        <v>0.9754605889320374</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.647294819355011</v>
+        <v>0.9724447727203369</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.3757091164588928</v>
+        <v>0.9752930998802185</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.8356314301490784</v>
+        <v>0.9790369868278503</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.5994696617126465</v>
+        <v>0.3830054998397827</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.3958503901958466</v>
+        <v>0.9546124339103699</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.5805723667144775</v>
+        <v>0.9633290767669678</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.3184345960617065</v>
+        <v>0.8808558583259583</v>
       </c>
     </row>
     <row r="195">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="E195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.7261018753051758</v>
+        <v>0.6829552054405212</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.7180429697036743</v>
+        <v>0.9991579055786133</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.5874982476234436</v>
+        <v>0.8392691016197205</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.3757091164588928</v>
+        <v>0.5042741894721985</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.6317888498306274</v>
+        <v>0.9084698557853699</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.599821150302887</v>
+        <v>0.8657333254814148</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.4180534482002258</v>
+        <v>0.9981631636619568</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.3116154968738556</v>
+        <v>0.9781270027160645</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.5953878164291382</v>
+        <v>0.8273709416389465</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.3858894407749176</v>
+        <v>0.3793967366218567</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.5768076181411743</v>
+        <v>0.7165983915328979</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.8347036242485046</v>
+        <v>0.9972949624061584</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.6556527614593506</v>
+        <v>0.430693656206131</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.7045800685882568</v>
+        <v>0.9746444821357727</v>
       </c>
     </row>
     <row r="209">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="E209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.6875952482223511</v>
+        <v>0.4543244242668152</v>
       </c>
     </row>
     <row r="210">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6311,10 +6311,10 @@
         </is>
       </c>
       <c r="E210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.394711434841156</v>
+        <v>0.9996300935745239</v>
       </c>
     </row>
   </sheetData>
